--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -585,6 +585,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
